--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.288808333333333</v>
+        <v>1.186522666666667</v>
       </c>
       <c r="H2">
-        <v>12.866425</v>
+        <v>3.559568</v>
       </c>
       <c r="I2">
-        <v>0.1993390083529519</v>
+        <v>0.06400371352898657</v>
       </c>
       <c r="J2">
-        <v>0.1993390083529519</v>
+        <v>0.06400371352898658</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N2">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q2">
-        <v>73.62395691841668</v>
+        <v>2.405218290947555</v>
       </c>
       <c r="R2">
-        <v>662.6156122657501</v>
+        <v>21.646964618528</v>
       </c>
       <c r="S2">
-        <v>0.01116986957986922</v>
+        <v>0.0004221867076807287</v>
       </c>
       <c r="T2">
-        <v>0.01116986957986922</v>
+        <v>0.0004221867076807288</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.288808333333333</v>
+        <v>1.186522666666667</v>
       </c>
       <c r="H3">
-        <v>12.866425</v>
+        <v>3.559568</v>
       </c>
       <c r="I3">
-        <v>0.1993390083529519</v>
+        <v>0.06400371352898657</v>
       </c>
       <c r="J3">
-        <v>0.1993390083529519</v>
+        <v>0.06400371352898658</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q3">
-        <v>1099.840473749477</v>
+        <v>304.2769810155875</v>
       </c>
       <c r="R3">
-        <v>9898.564263745298</v>
+        <v>2738.492829140288</v>
       </c>
       <c r="S3">
-        <v>0.1668624611423213</v>
+        <v>0.05340957921428161</v>
       </c>
       <c r="T3">
-        <v>0.1668624611423213</v>
+        <v>0.05340957921428161</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.288808333333333</v>
+        <v>1.186522666666667</v>
       </c>
       <c r="H4">
-        <v>12.866425</v>
+        <v>3.559568</v>
       </c>
       <c r="I4">
-        <v>0.1993390083529519</v>
+        <v>0.06400371352898657</v>
       </c>
       <c r="J4">
-        <v>0.1993390083529519</v>
+        <v>0.06400371352898658</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N4">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q4">
-        <v>140.4386957918389</v>
+        <v>57.95008225952179</v>
       </c>
       <c r="R4">
-        <v>1263.94826212655</v>
+        <v>521.5507403356961</v>
       </c>
       <c r="S4">
-        <v>0.02130667763076138</v>
+        <v>0.01017194760702424</v>
       </c>
       <c r="T4">
-        <v>0.02130667763076138</v>
+        <v>0.01017194760702424</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>33.315578</v>
       </c>
       <c r="I5">
-        <v>0.5161569185865866</v>
+        <v>0.599039184070822</v>
       </c>
       <c r="J5">
-        <v>0.5161569185865866</v>
+        <v>0.599039184070822</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N5">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q5">
-        <v>190.6376230681134</v>
+        <v>22.51150633422089</v>
       </c>
       <c r="R5">
-        <v>1715.738607613021</v>
+        <v>202.603557007988</v>
       </c>
       <c r="S5">
-        <v>0.02892261535259097</v>
+        <v>0.003951432923967324</v>
       </c>
       <c r="T5">
-        <v>0.02892261535259097</v>
+        <v>0.003951432923967324</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>33.315578</v>
       </c>
       <c r="I6">
-        <v>0.5161569185865866</v>
+        <v>0.599039184070822</v>
       </c>
       <c r="J6">
-        <v>0.5161569185865866</v>
+        <v>0.599039184070822</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q6">
         <v>2847.863418996161</v>
@@ -818,10 +818,10 @@
         <v>25630.77077096545</v>
       </c>
       <c r="S6">
-        <v>0.4320640224039681</v>
+        <v>0.4998839753196394</v>
       </c>
       <c r="T6">
-        <v>0.4320640224039681</v>
+        <v>0.4998839753196394</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>33.315578</v>
       </c>
       <c r="I7">
-        <v>0.5161569185865866</v>
+        <v>0.599039184070822</v>
       </c>
       <c r="J7">
-        <v>0.5161569185865866</v>
+        <v>0.599039184070822</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N7">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q7">
-        <v>363.6438500882164</v>
+        <v>542.3805601195186</v>
       </c>
       <c r="R7">
-        <v>3272.794650793948</v>
+        <v>4881.425041075667</v>
       </c>
       <c r="S7">
-        <v>0.05517028083002747</v>
+        <v>0.09520377582721537</v>
       </c>
       <c r="T7">
-        <v>0.05517028083002747</v>
+        <v>0.09520377582721534</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.121147333333333</v>
+        <v>6.246625666666667</v>
       </c>
       <c r="H8">
-        <v>18.363442</v>
+        <v>18.739877</v>
       </c>
       <c r="I8">
-        <v>0.2845040730604615</v>
+        <v>0.3369571024001913</v>
       </c>
       <c r="J8">
-        <v>0.2845040730604615</v>
+        <v>0.3369571024001914</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N8">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q8">
-        <v>105.0788593320867</v>
+        <v>12.66263067049355</v>
       </c>
       <c r="R8">
-        <v>945.7097339887802</v>
+        <v>113.963676034442</v>
       </c>
       <c r="S8">
-        <v>0.01594205478036773</v>
+        <v>0.002222664933770562</v>
       </c>
       <c r="T8">
-        <v>0.01594205478036773</v>
+        <v>0.002222664933770562</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.121147333333333</v>
+        <v>6.246625666666667</v>
       </c>
       <c r="H9">
-        <v>18.363442</v>
+        <v>18.739877</v>
       </c>
       <c r="I9">
-        <v>0.2845040730604615</v>
+        <v>0.3369571024001913</v>
       </c>
       <c r="J9">
-        <v>0.2845040730604615</v>
+        <v>0.3369571024001914</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q9">
-        <v>1569.733375739652</v>
+        <v>1601.911579765703</v>
       </c>
       <c r="R9">
-        <v>14127.60038165687</v>
+        <v>14417.20421789133</v>
       </c>
       <c r="S9">
-        <v>0.2381523326925911</v>
+        <v>0.2811827011304164</v>
       </c>
       <c r="T9">
-        <v>0.2381523326925911</v>
+        <v>0.2811827011304164</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.121147333333333</v>
+        <v>6.246625666666667</v>
       </c>
       <c r="H10">
-        <v>18.363442</v>
+        <v>18.739877</v>
       </c>
       <c r="I10">
-        <v>0.2845040730604615</v>
+        <v>0.3369571024001913</v>
       </c>
       <c r="J10">
-        <v>0.2845040730604615</v>
+        <v>0.3369571024001914</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N10">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q10">
-        <v>200.4393485159302</v>
+        <v>305.0868570802188</v>
       </c>
       <c r="R10">
-        <v>1803.954136643372</v>
+        <v>2745.781713721969</v>
       </c>
       <c r="S10">
-        <v>0.03040968558750267</v>
+        <v>0.05355173633600441</v>
       </c>
       <c r="T10">
-        <v>0.03040968558750267</v>
+        <v>0.05355173633600439</v>
       </c>
     </row>
   </sheetData>
